--- a/raw_data/KEEN ONE/Byrnes/2015/Baker North 2015/BakerNorth_siteinfo_2015.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2015/Baker North 2015/BakerNorth_siteinfo_2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="21540" windowHeight="10140"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Transect 2</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>(END COORDS EST, HEADING 111.89)</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -660,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -672,19 +681,20 @@
     <col min="2" max="2" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="14" customHeight="1">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="14" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -697,38 +707,47 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -741,35 +760,44 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H2" s="5">
         <v>42192</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>42.538069999999998</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>-70.786590000000004</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>42.538040000000002</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>-70.786990000000003</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>7.1</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>8</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -782,35 +810,44 @@
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="5">
         <v>42192</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>42.537869999999998</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>-70.784369999999996</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>42.537860000000002</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>-70.783969999999997</v>
-      </c>
-      <c r="J3">
-        <v>11</v>
-      </c>
-      <c r="K3">
-        <v>11.8</v>
-      </c>
-      <c r="L3">
-        <v>6</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>11.8</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -823,38 +860,47 @@
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H4" s="5">
         <v>42194</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>42.536769999999997</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>-70.783410000000003</v>
       </c>
-      <c r="H4" s="3">
+      <c r="K4" s="3">
         <v>42.536625999999998</v>
       </c>
-      <c r="I4" s="3">
+      <c r="L4" s="3">
         <v>-70.782929999999993</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>7</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>5.5</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>4</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>10.6</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1">
+    <row r="5" spans="1:17" s="1" customFormat="1">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -867,66 +913,75 @@
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H5" s="5">
         <v>42195</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>42.535020000000003</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>-70.781509999999997</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>42.535319999999999</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>-70.781769999999995</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>5.7</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>7.3</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>5</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>17</v>
       </c>
-      <c r="N5"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:17">
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:17">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:17">
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:17">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:17">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:17">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:17">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:17">
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:17">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:17">
       <c r="B16"/>
     </row>
     <row r="17" spans="2:2">
@@ -965,7 +1020,7 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D74:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D74:J1048576">
       <formula1>" IN 20, IN 40, OFF 40, OFF 20"</formula1>
     </dataValidation>
   </dataValidations>
